--- a/Pre_Relatorio.xlsx
+++ b/Pre_Relatorio.xlsx
@@ -73,31 +73,31 @@
     <t>Criptomoedas</t>
   </si>
   <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
     <t>Benchmark Estratégia</t>
   </si>
   <si>
     <t>Python</t>
   </si>
   <si>
-    <t>Bitcoin (BTC), Ethereum (ETH) e Tether (USDT).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Com base na palavra "crypto" que refere-se a criptomoeda e visando uma melhor fonética, foi suprimida a letra "t". </t>
   </si>
   <si>
     <t>Estima-se 1 a 3 trades por mês.</t>
   </si>
   <si>
-    <t>O CRYPO fará uma alocação incial para cada criptomoeda em sua carteira, fazendo um rebalanceamento mensal com base no retorno dos últimos 3 meses, sendo revisada a cada 6 meses em cima do índice S&amp;P500.</t>
-  </si>
-  <si>
-    <t>Portifolio</t>
-  </si>
-  <si>
     <t>1 mês</t>
+  </si>
+  <si>
+    <t>O CRYPO fará uma alocação incial para cada criptomoeda em sua carteira, fazendo um rebalanceamento mensal com base no retorno dos últimos 3 meses, sendo revisada a cada 6 meses em cima do TMC do Bitcoin.</t>
+  </si>
+  <si>
+    <t>Bitcoin (BTC), Ethereum (ETH), Solana (SOL) e Tether (USDT).</t>
+  </si>
+  <si>
+    <t>Total Market Cap (TMC) do Bitcoin (BTC)</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
   </si>
 </sst>
 </file>
@@ -332,6 +332,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,27 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +738,7 @@
   <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,48 +750,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="2:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="2:3" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -799,32 +799,32 @@
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>16</v>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="2:3" ht="143" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="2:3" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -864,15 +864,15 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -895,6 +895,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Comments xmlns="57713e7d-b485-4546-8f52-924dfa50a969" xsi:nil="true"/>
@@ -904,15 +913,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,26 +1171,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C46EDAF8-76CA-4168-94F5-F929C890542D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1954151C-BDE1-46B3-80EA-EDF4DD76A016}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="57713e7d-b485-4546-8f52-924dfa50a969"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b65c73a5-5dbe-4b46-93be-aeb6a402bcdb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1954151C-BDE1-46B3-80EA-EDF4DD76A016}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C46EDAF8-76CA-4168-94F5-F929C890542D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="57713e7d-b485-4546-8f52-924dfa50a969"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b65c73a5-5dbe-4b46-93be-aeb6a402bcdb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
